--- a/document/調査メモ.xlsx
+++ b/document/調査メモ.xlsx
@@ -277,10 +277,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>HSQLDBの使い方</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>http://www.wakhok.ac.jp/~tomoharu/jsf2004/hsqldb/</t>
-  </si>
-  <si>
-    <t>HSQLDBの使い方</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -288,7 +289,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +304,14 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -322,17 +331,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -694,15 +711,18 @@
       <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/document/調査メモ.xlsx
+++ b/document/調査メモ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>https://flywaydb.org/</t>
   </si>
@@ -282,6 +282,105 @@
   </si>
   <si>
     <t>http://www.wakhok.ac.jp/~tomoharu/jsf2004/hsqldb/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Spring Bootで静的コンテンツを配置</t>
+    <rPh sb="12" eb="14">
+      <t>セイテキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/src/main/resources/static配下に配置</t>
+    <rPh sb="26" eb="28">
+      <t>ハイカ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンクは/src/main/resources/static以下のパスを記述</t>
+    <rPh sb="30" eb="32">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://qiita.com/hiroshi_maz/items/0a7eec94e9a4ec1413f1</t>
+  </si>
+  <si>
+    <t>→application.propertiesに以下の記述があると、テンプレートや静的ファイルの更新時にアプリケーションの再起動が不要</t>
+    <rPh sb="24" eb="26">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>セイテキ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>コウシンジ</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>サイキドウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spring.thymeleaf.cache=false</t>
+  </si>
+  <si>
+    <t>spring.jpa.hibernate.ddl-auto=update</t>
+  </si>
+  <si>
+    <t>JPAで接続してデータがきちんと永続化されるようにapplication.propertiesに以下の行を追加する</t>
+    <rPh sb="4" eb="6">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>エイゾクカ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※この行がないとJPA経由で接続したとき、アプリが終了するとデータが削除される</t>
+    <rPh sb="3" eb="4">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケイユ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>サクジョ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -642,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -653,7 +752,7 @@
     <col min="2" max="2" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -664,7 +763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -672,12 +771,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -688,7 +787,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -696,32 +795,75 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4">
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B19" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C21" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1"/>
+    <hyperlink ref="B21" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/document/調査メモ.xlsx
+++ b/document/調査メモ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>https://flywaydb.org/</t>
   </si>
@@ -380,6 +380,182 @@
     </rPh>
     <rPh sb="34" eb="36">
       <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cd hsqldb_1_7_1\hsqldb\data</t>
+  </si>
+  <si>
+    <t>java -cp ..\lib\hsqldb.jar org.hsqldb.util.DatabaseManager</t>
+  </si>
+  <si>
+    <t>サーバー起動</t>
+    <rPh sb="4" eb="6">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DatabaseManager起動</t>
+    <rPh sb="15" eb="17">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java -cp ..\lib\hsqldb.jar org.hsqldb.Server -database TEST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JPAで接続している場合：</t>
+    <rPh sb="4" eb="6">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Query</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NativeQuery</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JQLでの記述。SELECTの対象はテーブルではなく、データオブジェクトなので注意。</t>
+    <rPh sb="5" eb="7">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQLでの記述。SELECTの対象はテーブル。</t>
+    <rPh sb="5" eb="7">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JPQLの注意事項</t>
+    <rPh sb="5" eb="7">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全項目(テーブルにaliasを指定し、 SELECT alias FROM tableObjectName alias)の習得を指定するとtableObjectが返却される</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンコウモク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>シュウトク</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>一部の値を指定したJPQLの場合、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tableObjectは返却されずObject配列が返却される</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→以下の方法で対処が可能</t>
+    <rPh sb="1" eb="3">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイショ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NativeSQLにする(@Query(value = "SQL" nativeQuery = true)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンストラクタ式を利用する(SELECT new Table(項目名) from Table)</t>
+    <rPh sb="7" eb="8">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※参考「JavaEE7をはじめよう(4) - JPAクエリ（その1） JPQL」　http://enterprisegeeks.hatenablog.com/entry/2015/02/16/080922</t>
+    <rPh sb="1" eb="3">
+      <t>サンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -388,7 +564,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,6 +587,15 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -439,12 +624,18 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -741,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -833,39 +1024,121 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="D17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
+    <row r="19" spans="1:5">
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="D20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="D21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="D24" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="D26" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="E27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="E28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="E29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
         <v>9</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B31" t="s">
         <v>10</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C33" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="D34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="C35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="C36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B21" r:id="rId1"/>
+    <hyperlink ref="B33" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
